--- a/template.xlsx
+++ b/template.xlsx
@@ -10,13 +10,14 @@
     <sheet name="wavelength_0" sheetId="1" r:id="rId1"/>
     <sheet name="wavelength_1" sheetId="2" r:id="rId2"/>
     <sheet name="wavelength_2" sheetId="3" r:id="rId3"/>
+    <sheet name="example" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="19">
   <si>
     <t>Reference Configuration</t>
   </si>
@@ -24,13 +25,16 @@
     <t>Reference Connector</t>
   </si>
   <si>
+    <t>DUT</t>
+  </si>
+  <si>
     <t>Fiber Number</t>
   </si>
   <si>
-    <t>DUT</t>
+    <t>1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>NaN</t>
   </si>
   <si>
     <t>2</t>
@@ -93,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -128,11 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,36 +438,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -471,27 +478,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>2</v>
@@ -509,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>3</v>
@@ -527,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>4</v>
@@ -545,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>5</v>
@@ -563,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>6</v>
@@ -581,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>7</v>
@@ -599,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>8</v>
@@ -617,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>9</v>
@@ -635,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>10</v>
@@ -653,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>11</v>
@@ -671,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>12</v>
@@ -689,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>13</v>
@@ -707,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>14</v>
@@ -727,7 +734,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -750,17 +757,17 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -981,7 +988,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1022,17 +1029,17 @@
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1235,7 +1242,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1294,17 +1301,17 @@
       <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1489,7 +1496,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1566,17 +1573,17 @@
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1743,7 +1750,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1838,17 +1845,17 @@
       <c r="B78">
         <v>6</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1997,7 +2004,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2110,17 +2117,17 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2251,7 +2258,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -2382,17 +2389,17 @@
       <c r="B108">
         <v>8</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
+      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2505,7 +2512,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2654,17 +2661,17 @@
       <c r="B123">
         <v>9</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
+      <c r="C123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2759,7 +2766,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2926,17 +2933,17 @@
       <c r="B138">
         <v>10</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3013,7 +3020,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -3198,17 +3205,17 @@
       <c r="B153">
         <v>11</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
+      <c r="C153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3267,7 +3274,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -3470,17 +3477,17 @@
       <c r="B168">
         <v>12</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3521,7 +3528,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -3742,17 +3749,17 @@
       <c r="B183">
         <v>13</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
+      <c r="C183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3775,7 +3782,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4014,22 +4021,22 @@
       <c r="B198">
         <v>14</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
+      <c r="C198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="A17:A30"/>
     <mergeCell ref="A31:A44"/>
@@ -4051,36 +4058,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4095,27 +4098,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>2</v>
@@ -4133,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>3</v>
@@ -4151,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>4</v>
@@ -4169,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>5</v>
@@ -4187,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>6</v>
@@ -4205,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>7</v>
@@ -4223,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>8</v>
@@ -4241,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>9</v>
@@ -4259,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>10</v>
@@ -4277,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>11</v>
@@ -4295,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>12</v>
@@ -4313,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>13</v>
@@ -4331,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>14</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4374,17 +4377,17 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4605,7 +4608,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4646,17 +4649,17 @@
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4859,7 +4862,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4918,17 +4921,17 @@
       <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5113,7 +5116,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5190,17 +5193,17 @@
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5367,7 +5370,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -5462,17 +5465,17 @@
       <c r="B78">
         <v>6</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5621,7 +5624,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5734,17 +5737,17 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5875,7 +5878,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -6006,17 +6009,17 @@
       <c r="B108">
         <v>8</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
+      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6129,7 +6132,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -6278,17 +6281,17 @@
       <c r="B123">
         <v>9</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
+      <c r="C123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6383,7 +6386,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6550,17 +6553,17 @@
       <c r="B138">
         <v>10</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6637,7 +6640,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -6822,17 +6825,17 @@
       <c r="B153">
         <v>11</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
+      <c r="C153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6891,7 +6894,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7094,17 +7097,17 @@
       <c r="B168">
         <v>12</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7145,7 +7148,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -7366,17 +7369,17 @@
       <c r="B183">
         <v>13</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
+      <c r="C183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7399,7 +7402,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -7638,22 +7641,22 @@
       <c r="B198">
         <v>14</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
+      <c r="C198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="A17:A30"/>
     <mergeCell ref="A31:A44"/>
@@ -7675,36 +7678,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7719,27 +7718,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>2</v>
@@ -7757,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>3</v>
@@ -7775,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>4</v>
@@ -7793,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>5</v>
@@ -7811,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>6</v>
@@ -7829,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>7</v>
@@ -7847,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>8</v>
@@ -7865,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>9</v>
@@ -7883,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>10</v>
@@ -7901,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>11</v>
@@ -7919,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>12</v>
@@ -7937,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>13</v>
@@ -7955,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>14</v>
@@ -7975,7 +7974,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7998,17 +7997,17 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8229,7 +8228,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8270,17 +8269,17 @@
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8483,7 +8482,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8542,17 +8541,17 @@
       <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8737,7 +8736,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8814,17 +8813,17 @@
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8991,7 +8990,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9086,17 +9085,17 @@
       <c r="B78">
         <v>6</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9245,7 +9244,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -9358,17 +9357,17 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9499,7 +9498,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -9630,17 +9629,17 @@
       <c r="B108">
         <v>8</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
+      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9753,7 +9752,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -9902,17 +9901,17 @@
       <c r="B123">
         <v>9</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
+      <c r="C123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10007,7 +10006,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -10174,17 +10173,17 @@
       <c r="B138">
         <v>10</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -10261,7 +10260,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -10446,17 +10445,17 @@
       <c r="B153">
         <v>11</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
+      <c r="C153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -10515,7 +10514,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -10718,17 +10717,17 @@
       <c r="B168">
         <v>12</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -10769,7 +10768,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -10990,17 +10989,17 @@
       <c r="B183">
         <v>13</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
+      <c r="C183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -11023,7 +11022,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -11262,22 +11261,3642 @@
       <c r="B198">
         <v>14</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
+      <c r="C198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F198"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.1057058615375057</v>
+      </c>
+      <c r="D4">
+        <v>0.4054875052685661</v>
+      </c>
+      <c r="E4">
+        <v>0.220568819801427</v>
+      </c>
+      <c r="F4">
+        <v>0.1510190503398359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.6839277408059068</v>
+      </c>
+      <c r="D5">
+        <v>0.09648237439910046</v>
+      </c>
+      <c r="E5">
+        <v>0.4275477810813021</v>
+      </c>
+      <c r="F5">
+        <v>0.9267467869661136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.9468306271111048</v>
+      </c>
+      <c r="D6">
+        <v>0.2009985310335385</v>
+      </c>
+      <c r="E6">
+        <v>0.5446854584150117</v>
+      </c>
+      <c r="F6">
+        <v>0.8358841619412501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.5297170615078532</v>
+      </c>
+      <c r="D7">
+        <v>0.3516859713093379</v>
+      </c>
+      <c r="E7">
+        <v>0.8733112456858189</v>
+      </c>
+      <c r="F7">
+        <v>0.09086840447102462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.6928238852262484</v>
+      </c>
+      <c r="D8">
+        <v>0.01444499441924441</v>
+      </c>
+      <c r="E8">
+        <v>0.1695000391947618</v>
+      </c>
+      <c r="F8">
+        <v>0.1179114025469392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.4338836338871206</v>
+      </c>
+      <c r="D9">
+        <v>0.07668737043177387</v>
+      </c>
+      <c r="E9">
+        <v>0.3326444749893933</v>
+      </c>
+      <c r="F9">
+        <v>0.5255410872510869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.817289891754466</v>
+      </c>
+      <c r="D10">
+        <v>0.4891047311920637</v>
+      </c>
+      <c r="E10">
+        <v>0.5399472582697343</v>
+      </c>
+      <c r="F10">
+        <v>0.7156669115377428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.01215104699763292</v>
+      </c>
+      <c r="D11">
+        <v>0.1638025755092208</v>
+      </c>
+      <c r="E11">
+        <v>0.2350745985060948</v>
+      </c>
+      <c r="F11">
+        <v>0.7428798936564979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.9851560544287014</v>
+      </c>
+      <c r="D12">
+        <v>0.8307953363381482</v>
+      </c>
+      <c r="E12">
+        <v>0.2394519790750897</v>
+      </c>
+      <c r="F12">
+        <v>0.6083066024993764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.4609114855345035</v>
+      </c>
+      <c r="D13">
+        <v>0.6593461221883844</v>
+      </c>
+      <c r="E13">
+        <v>0.5380815420977486</v>
+      </c>
+      <c r="F13">
+        <v>0.09869399934055711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.8022925926268524</v>
+      </c>
+      <c r="D14">
+        <v>0.09627015827639207</v>
+      </c>
+      <c r="E14">
+        <v>0.4707151481937409</v>
+      </c>
+      <c r="F14">
+        <v>0.4616310944839641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.1368858947061381</v>
+      </c>
+      <c r="D15">
+        <v>0.8335705013298041</v>
+      </c>
+      <c r="E15">
+        <v>0.5346657699568432</v>
+      </c>
+      <c r="F15">
+        <v>0.5734002687767543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.4732043480177471</v>
+      </c>
+      <c r="D16">
+        <v>0.12292796915222</v>
+      </c>
+      <c r="E16">
+        <v>0.3474237307860464</v>
+      </c>
+      <c r="F16">
+        <v>0.3222145036513047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.2835061131872313</v>
+      </c>
+      <c r="D17">
+        <v>0.4125110431882127</v>
+      </c>
+      <c r="E17">
+        <v>0.9048264067837933</v>
+      </c>
+      <c r="F17">
+        <v>0.4559608741839181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.01822534930393627</v>
+      </c>
+      <c r="D19">
+        <v>0.008733305635668986</v>
+      </c>
+      <c r="E19">
+        <v>0.7152057910844675</v>
+      </c>
+      <c r="F19">
+        <v>0.1088655465858719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.8500553546453724</v>
+      </c>
+      <c r="D20">
+        <v>0.09213750731855608</v>
+      </c>
+      <c r="E20">
+        <v>0.3447712209883429</v>
+      </c>
+      <c r="F20">
+        <v>0.06284848125114462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.9091157982170937</v>
+      </c>
+      <c r="D21">
+        <v>0.4606082198609698</v>
+      </c>
+      <c r="E21">
+        <v>0.01031509674280062</v>
+      </c>
+      <c r="F21">
+        <v>0.556159184600939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.3202983181497477</v>
+      </c>
+      <c r="D22">
+        <v>0.1528783247913538</v>
+      </c>
+      <c r="E22">
+        <v>0.2861582889541141</v>
+      </c>
+      <c r="F22">
+        <v>0.8956392361172633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.6145309745161736</v>
+      </c>
+      <c r="D23">
+        <v>0.699953859980566</v>
+      </c>
+      <c r="E23">
+        <v>0.4015186038653662</v>
+      </c>
+      <c r="F23">
+        <v>0.06615629715161508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0.9895509195170201</v>
+      </c>
+      <c r="D24">
+        <v>0.9439881913134248</v>
+      </c>
+      <c r="E24">
+        <v>0.07296822392899827</v>
+      </c>
+      <c r="F24">
+        <v>0.3723097891965899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0.9339756660021564</v>
+      </c>
+      <c r="D25">
+        <v>0.3500220476780994</v>
+      </c>
+      <c r="E25">
+        <v>0.02288933985302366</v>
+      </c>
+      <c r="F25">
+        <v>0.4172562670487755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.5662783389633883</v>
+      </c>
+      <c r="D26">
+        <v>0.2437593647444334</v>
+      </c>
+      <c r="E26">
+        <v>0.1424899875509584</v>
+      </c>
+      <c r="F26">
+        <v>0.2660514260923738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0.1829702058609682</v>
+      </c>
+      <c r="D27">
+        <v>0.2134053901288175</v>
+      </c>
+      <c r="E27">
+        <v>0.7180437682859697</v>
+      </c>
+      <c r="F27">
+        <v>0.8583130974169256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.4214247571689108</v>
+      </c>
+      <c r="D28">
+        <v>0.2025794736957347</v>
+      </c>
+      <c r="E28">
+        <v>0.05272510165522271</v>
+      </c>
+      <c r="F28">
+        <v>0.3218174333084314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>0.7775236037372445</v>
+      </c>
+      <c r="D29">
+        <v>0.8732720724502999</v>
+      </c>
+      <c r="E29">
+        <v>0.5744156155463912</v>
+      </c>
+      <c r="F29">
+        <v>0.1327151744115909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>0.7703948907481362</v>
+      </c>
+      <c r="D30">
+        <v>0.9496825046408373</v>
+      </c>
+      <c r="E30">
+        <v>0.03046212684253957</v>
+      </c>
+      <c r="F30">
+        <v>0.1947407468498983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0.07666809639614902</v>
+      </c>
+      <c r="D31">
+        <v>0.6968935048828061</v>
+      </c>
+      <c r="E31">
+        <v>0.6966271521917057</v>
+      </c>
+      <c r="F31">
+        <v>0.3004576953866062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0.5980917377722664</v>
+      </c>
+      <c r="D32">
+        <v>0.294401529699863</v>
+      </c>
+      <c r="E32">
+        <v>0.4792492681855751</v>
+      </c>
+      <c r="F32">
+        <v>0.3830964552773176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0.3239008391395354</v>
+      </c>
+      <c r="D34">
+        <v>0.5807242665368125</v>
+      </c>
+      <c r="E34">
+        <v>0.0306472021256774</v>
+      </c>
+      <c r="F34">
+        <v>0.519040146030325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>0.8625012465266342</v>
+      </c>
+      <c r="D35">
+        <v>0.8681097932922992</v>
+      </c>
+      <c r="E35">
+        <v>0.2467935639127722</v>
+      </c>
+      <c r="F35">
+        <v>0.5510141394413323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>0.4129355533141842</v>
+      </c>
+      <c r="D36">
+        <v>0.2071959810207114</v>
+      </c>
+      <c r="E36">
+        <v>0.7811453748058252</v>
+      </c>
+      <c r="F36">
+        <v>0.9909180812601097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0.49899950460381</v>
+      </c>
+      <c r="D37">
+        <v>0.6618116564786105</v>
+      </c>
+      <c r="E37">
+        <v>0.2072792372710907</v>
+      </c>
+      <c r="F37">
+        <v>0.4753429976731264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0.350159684999817</v>
+      </c>
+      <c r="D38">
+        <v>0.4998177694551925</v>
+      </c>
+      <c r="E38">
+        <v>0.1218356169213152</v>
+      </c>
+      <c r="F38">
+        <v>0.4498829969349483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>0.5264600737680482</v>
+      </c>
+      <c r="D39">
+        <v>0.5906902591636867</v>
+      </c>
+      <c r="E39">
+        <v>0.355717844816319</v>
+      </c>
+      <c r="F39">
+        <v>0.8233794801910782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0.1047252592623932</v>
+      </c>
+      <c r="D40">
+        <v>0.6113238938087771</v>
+      </c>
+      <c r="E40">
+        <v>0.5992788256591111</v>
+      </c>
+      <c r="F40">
+        <v>0.5260858214344621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>0.3635602076557066</v>
+      </c>
+      <c r="D41">
+        <v>0.75738118724324</v>
+      </c>
+      <c r="E41">
+        <v>0.3053579139131365</v>
+      </c>
+      <c r="F41">
+        <v>0.5871668494358629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>0.4829939018717015</v>
+      </c>
+      <c r="D42">
+        <v>0.1986424046107317</v>
+      </c>
+      <c r="E42">
+        <v>0.3047552738112121</v>
+      </c>
+      <c r="F42">
+        <v>0.08858301981167893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>0.8529391677622502</v>
+      </c>
+      <c r="D43">
+        <v>0.8206047303076525</v>
+      </c>
+      <c r="E43">
+        <v>0.3069416430308167</v>
+      </c>
+      <c r="F43">
+        <v>0.05227623252056934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>0.8990039131122883</v>
+      </c>
+      <c r="D44">
+        <v>0.7113056447111036</v>
+      </c>
+      <c r="E44">
+        <v>0.5055163348210867</v>
+      </c>
+      <c r="F44">
+        <v>0.507084639669002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.7571887923037482</v>
+      </c>
+      <c r="D45">
+        <v>0.5144420919611578</v>
+      </c>
+      <c r="E45">
+        <v>0.4711543134994962</v>
+      </c>
+      <c r="F45">
+        <v>0.9400556262856455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0.6202184457794194</v>
+      </c>
+      <c r="D46">
+        <v>0.731785050576784</v>
+      </c>
+      <c r="E46">
+        <v>0.5742846062896474</v>
+      </c>
+      <c r="F46">
+        <v>0.4041265411790919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0.607829808100407</v>
+      </c>
+      <c r="D47">
+        <v>0.7031368666004645</v>
+      </c>
+      <c r="E47">
+        <v>0.3520291419626267</v>
+      </c>
+      <c r="F47">
+        <v>0.6280088396802421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.8833790556930884</v>
+      </c>
+      <c r="D49">
+        <v>0.5283635501662417</v>
+      </c>
+      <c r="E49">
+        <v>0.2727390702690408</v>
+      </c>
+      <c r="F49">
+        <v>0.1810569343832783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>0.7440222178798511</v>
+      </c>
+      <c r="D50">
+        <v>0.9601357041101073</v>
+      </c>
+      <c r="E50">
+        <v>0.1179692295300887</v>
+      </c>
+      <c r="F50">
+        <v>0.9238080263989727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0.4802303472736161</v>
+      </c>
+      <c r="D51">
+        <v>0.8836509201801328</v>
+      </c>
+      <c r="E51">
+        <v>0.4387270912784778</v>
+      </c>
+      <c r="F51">
+        <v>0.6185110709292811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>0.04695406272168856</v>
+      </c>
+      <c r="D52">
+        <v>0.7678748359244807</v>
+      </c>
+      <c r="E52">
+        <v>0.08411541534967271</v>
+      </c>
+      <c r="F52">
+        <v>0.8076640975198291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>0.9667469661173493</v>
+      </c>
+      <c r="D53">
+        <v>0.7172629562379291</v>
+      </c>
+      <c r="E53">
+        <v>0.7797689551437044</v>
+      </c>
+      <c r="F53">
+        <v>0.5172276857114211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>0.7356594700133103</v>
+      </c>
+      <c r="D54">
+        <v>0.4036559333630911</v>
+      </c>
+      <c r="E54">
+        <v>0.1835494387446027</v>
+      </c>
+      <c r="F54">
+        <v>0.8406037067542891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>0.6957676031195583</v>
+      </c>
+      <c r="D55">
+        <v>0.5503517815531335</v>
+      </c>
+      <c r="E55">
+        <v>0.105333400547824</v>
+      </c>
+      <c r="F55">
+        <v>0.9418454308860273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>0.6156767338163947</v>
+      </c>
+      <c r="D56">
+        <v>0.3070238491483862</v>
+      </c>
+      <c r="E56">
+        <v>0.2657427115399666</v>
+      </c>
+      <c r="F56">
+        <v>0.2981218462126748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>0.5210756021634542</v>
+      </c>
+      <c r="D57">
+        <v>0.6656418332881402</v>
+      </c>
+      <c r="E57">
+        <v>0.05755498525989267</v>
+      </c>
+      <c r="F57">
+        <v>0.4545546182683122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>0.7919651315576277</v>
+      </c>
+      <c r="D58">
+        <v>0.9434692107690116</v>
+      </c>
+      <c r="E58">
+        <v>0.7772295891854978</v>
+      </c>
+      <c r="F58">
+        <v>0.3557638904900734</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0.1629001547275373</v>
+      </c>
+      <c r="D59">
+        <v>0.3332672119374471</v>
+      </c>
+      <c r="E59">
+        <v>0.8608906824757543</v>
+      </c>
+      <c r="F59">
+        <v>0.4629030837521145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>0.4190360223440579</v>
+      </c>
+      <c r="D60">
+        <v>0.6006044569867066</v>
+      </c>
+      <c r="E60">
+        <v>0.4700799131568241</v>
+      </c>
+      <c r="F60">
+        <v>0.3034209474434856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>0.7444196648132295</v>
+      </c>
+      <c r="D61">
+        <v>0.3323927802715526</v>
+      </c>
+      <c r="E61">
+        <v>0.1634329954177605</v>
+      </c>
+      <c r="F61">
+        <v>0.111436037816229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0.2750263384724958</v>
+      </c>
+      <c r="D62">
+        <v>0.3712506214190867</v>
+      </c>
+      <c r="E62">
+        <v>0.8693615849548459</v>
+      </c>
+      <c r="F62">
+        <v>0.9886942377170547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>0.9848334403696793</v>
+      </c>
+      <c r="D64">
+        <v>0.9893108758334862</v>
+      </c>
+      <c r="E64">
+        <v>0.2085558697870296</v>
+      </c>
+      <c r="F64">
+        <v>0.5452172285790309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>0.4606207471147606</v>
+      </c>
+      <c r="D65">
+        <v>0.8235492955108167</v>
+      </c>
+      <c r="E65">
+        <v>0.6170142480130407</v>
+      </c>
+      <c r="F65">
+        <v>0.2303642249692942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>0.9292359288251348</v>
+      </c>
+      <c r="D66">
+        <v>0.7151511836233557</v>
+      </c>
+      <c r="E66">
+        <v>0.4436506043823234</v>
+      </c>
+      <c r="F66">
+        <v>0.7752044508028109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1"/>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>0.05590488730841048</v>
+      </c>
+      <c r="D67">
+        <v>0.8803123531264546</v>
+      </c>
+      <c r="E67">
+        <v>0.6473215998050124</v>
+      </c>
+      <c r="F67">
+        <v>0.7547026871819059</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>0.6211806035407099</v>
+      </c>
+      <c r="D68">
+        <v>0.1807393006389274</v>
+      </c>
+      <c r="E68">
+        <v>0.2707878958267063</v>
+      </c>
+      <c r="F68">
+        <v>0.2702201076082845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>0.7062176930676676</v>
+      </c>
+      <c r="D69">
+        <v>0.3593000990772737</v>
+      </c>
+      <c r="E69">
+        <v>0.3183878697972874</v>
+      </c>
+      <c r="F69">
+        <v>0.7501030774535037</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>0.8965209721048992</v>
+      </c>
+      <c r="D70">
+        <v>0.2355529875470841</v>
+      </c>
+      <c r="E70">
+        <v>0.1333547011144293</v>
+      </c>
+      <c r="F70">
+        <v>0.3054066521781127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1"/>
+      <c r="B71">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>0.08602923344114832</v>
+      </c>
+      <c r="D71">
+        <v>0.4003299206669633</v>
+      </c>
+      <c r="E71">
+        <v>0.5139679644314337</v>
+      </c>
+      <c r="F71">
+        <v>0.08206844125689239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1"/>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>0.3475278555668982</v>
+      </c>
+      <c r="D72">
+        <v>0.3876013664894137</v>
+      </c>
+      <c r="E72">
+        <v>0.9488520191036098</v>
+      </c>
+      <c r="F72">
+        <v>0.2280309911540551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0.946383536341702</v>
+      </c>
+      <c r="D73">
+        <v>0.1470676780496093</v>
+      </c>
+      <c r="E73">
+        <v>0.8179729474892347</v>
+      </c>
+      <c r="F73">
+        <v>0.7768130421602842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1"/>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>0.6812958293391701</v>
+      </c>
+      <c r="D74">
+        <v>0.1768381504365973</v>
+      </c>
+      <c r="E74">
+        <v>0.6273459685773635</v>
+      </c>
+      <c r="F74">
+        <v>0.125405193062738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1"/>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.7409120842021782</v>
+      </c>
+      <c r="D75">
+        <v>0.3512405428888138</v>
+      </c>
+      <c r="E75">
+        <v>0.3934083065958609</v>
+      </c>
+      <c r="F75">
+        <v>0.6538007492148274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1"/>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0.5937968984484433</v>
+      </c>
+      <c r="D76">
+        <v>0.6669915337133285</v>
+      </c>
+      <c r="E76">
+        <v>0.7672137171257839</v>
+      </c>
+      <c r="F76">
+        <v>0.3366667932879776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1"/>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>0.3515338347583026</v>
+      </c>
+      <c r="D77">
+        <v>0.5636000063416204</v>
+      </c>
+      <c r="E77">
+        <v>0.5667934517703586</v>
+      </c>
+      <c r="F77">
+        <v>0.435797925280039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1"/>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1"/>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>0.4427971491184781</v>
+      </c>
+      <c r="D79">
+        <v>0.208980627250922</v>
+      </c>
+      <c r="E79">
+        <v>0.3072371057311141</v>
+      </c>
+      <c r="F79">
+        <v>0.7160367310250711</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1"/>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>0.5401424542466335</v>
+      </c>
+      <c r="D80">
+        <v>0.749574564274065</v>
+      </c>
+      <c r="E80">
+        <v>0.3762257180595613</v>
+      </c>
+      <c r="F80">
+        <v>0.2741958089683869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1"/>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>0.6824925514367806</v>
+      </c>
+      <c r="D81">
+        <v>0.7188353243330029</v>
+      </c>
+      <c r="E81">
+        <v>0.9291778221840701</v>
+      </c>
+      <c r="F81">
+        <v>0.9419793387943319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1"/>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>0.7363791171413616</v>
+      </c>
+      <c r="D82">
+        <v>0.7624373226281709</v>
+      </c>
+      <c r="E82">
+        <v>0.8113576372671073</v>
+      </c>
+      <c r="F82">
+        <v>0.398805717085252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1"/>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>0.1120484569405377</v>
+      </c>
+      <c r="D83">
+        <v>0.1088256871619194</v>
+      </c>
+      <c r="E83">
+        <v>0.1391296175046898</v>
+      </c>
+      <c r="F83">
+        <v>0.6890864784745485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1"/>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>0.3235424603056085</v>
+      </c>
+      <c r="D84">
+        <v>0.4698764204107613</v>
+      </c>
+      <c r="E84">
+        <v>0.5604161437538226</v>
+      </c>
+      <c r="F84">
+        <v>0.7821540591086746</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1"/>
+      <c r="B85">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>0.9593194222285272</v>
+      </c>
+      <c r="D85">
+        <v>0.9181153299022574</v>
+      </c>
+      <c r="E85">
+        <v>0.02928584142129698</v>
+      </c>
+      <c r="F85">
+        <v>0.2755675994209473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1"/>
+      <c r="B86">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>0.3126033283614111</v>
+      </c>
+      <c r="D86">
+        <v>0.4998636405083499</v>
+      </c>
+      <c r="E86">
+        <v>0.6839494709750253</v>
+      </c>
+      <c r="F86">
+        <v>0.03153910119523318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0.630845995187359</v>
+      </c>
+      <c r="D87">
+        <v>0.6641648627532595</v>
+      </c>
+      <c r="E87">
+        <v>0.2977603130592285</v>
+      </c>
+      <c r="F87">
+        <v>0.8644677472277873</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1"/>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>0.16065744706761</v>
+      </c>
+      <c r="D88">
+        <v>0.7896380449886224</v>
+      </c>
+      <c r="E88">
+        <v>0.6731624221319362</v>
+      </c>
+      <c r="F88">
+        <v>0.06686926556133377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1"/>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>0.2648295482034806</v>
+      </c>
+      <c r="D89">
+        <v>0.5524854788947904</v>
+      </c>
+      <c r="E89">
+        <v>0.2536534565777336</v>
+      </c>
+      <c r="F89">
+        <v>0.7508031189612525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0.9482753297621409</v>
+      </c>
+      <c r="D90">
+        <v>0.4569098495140443</v>
+      </c>
+      <c r="E90">
+        <v>0.7720615693203829</v>
+      </c>
+      <c r="F90">
+        <v>0.9658160582219654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1"/>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0.03846590330414257</v>
+      </c>
+      <c r="D91">
+        <v>0.8579688474706015</v>
+      </c>
+      <c r="E91">
+        <v>0.2863160529634272</v>
+      </c>
+      <c r="F91">
+        <v>0.5055953460667316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0.9353711518055176</v>
+      </c>
+      <c r="D92">
+        <v>0.9106818784211119</v>
+      </c>
+      <c r="E92">
+        <v>0.8760956917209847</v>
+      </c>
+      <c r="F92">
+        <v>0.506259857797046</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1"/>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>0.5191071520602947</v>
+      </c>
+      <c r="D94">
+        <v>0.01943422754529855</v>
+      </c>
+      <c r="E94">
+        <v>0.7118090603975518</v>
+      </c>
+      <c r="F94">
+        <v>0.7099222844685059</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1"/>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>0.1329894889738635</v>
+      </c>
+      <c r="D95">
+        <v>0.9566406867169351</v>
+      </c>
+      <c r="E95">
+        <v>0.5156194673464468</v>
+      </c>
+      <c r="F95">
+        <v>0.2307078698738032</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>0.04430534102041195</v>
+      </c>
+      <c r="D96">
+        <v>0.1309938741416934</v>
+      </c>
+      <c r="E96">
+        <v>0.733738588496609</v>
+      </c>
+      <c r="F96">
+        <v>0.6724361398275008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1"/>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>0.8580529713135747</v>
+      </c>
+      <c r="D97">
+        <v>0.6668659341676449</v>
+      </c>
+      <c r="E97">
+        <v>0.2255289295498407</v>
+      </c>
+      <c r="F97">
+        <v>0.5473876149879491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>0.5630807762592592</v>
+      </c>
+      <c r="D98">
+        <v>0.2129909649185538</v>
+      </c>
+      <c r="E98">
+        <v>0.7232136655686234</v>
+      </c>
+      <c r="F98">
+        <v>0.9463238068453063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="B99">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>0.541497417716616</v>
+      </c>
+      <c r="D99">
+        <v>0.7831676477832281</v>
+      </c>
+      <c r="E99">
+        <v>0.6978203601039836</v>
+      </c>
+      <c r="F99">
+        <v>0.6537695486028816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>0.388717851931523</v>
+      </c>
+      <c r="D100">
+        <v>0.75249599661707</v>
+      </c>
+      <c r="E100">
+        <v>0.06547227322189364</v>
+      </c>
+      <c r="F100">
+        <v>0.01875167180099424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0.6112790434889985</v>
+      </c>
+      <c r="D101">
+        <v>0.1763015535087463</v>
+      </c>
+      <c r="E101">
+        <v>0.07047141202896912</v>
+      </c>
+      <c r="F101">
+        <v>0.4669648995007732</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1"/>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>0.1486999246547952</v>
+      </c>
+      <c r="D102">
+        <v>0.4962275886101745</v>
+      </c>
+      <c r="E102">
+        <v>0.7979945308934983</v>
+      </c>
+      <c r="F102">
+        <v>0.341925434415533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1"/>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>0.5422605113279447</v>
+      </c>
+      <c r="D103">
+        <v>0.9002060634830649</v>
+      </c>
+      <c r="E103">
+        <v>0.5518794073594211</v>
+      </c>
+      <c r="F103">
+        <v>0.5158090922671748</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.3717593415029622</v>
+      </c>
+      <c r="D104">
+        <v>0.941544665967037</v>
+      </c>
+      <c r="E104">
+        <v>0.1938729160033865</v>
+      </c>
+      <c r="F104">
+        <v>0.8845052296617389</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1"/>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>0.2362531219183378</v>
+      </c>
+      <c r="D105">
+        <v>0.6420303695577873</v>
+      </c>
+      <c r="E105">
+        <v>0.272019013506233</v>
+      </c>
+      <c r="F105">
+        <v>0.9449313483284434</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>0.3364516348632431</v>
+      </c>
+      <c r="D106">
+        <v>0.3421291051413159</v>
+      </c>
+      <c r="E106">
+        <v>0.6688057235701474</v>
+      </c>
+      <c r="F106">
+        <v>0.3834589604806399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1"/>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>0.6915128093714882</v>
+      </c>
+      <c r="D107">
+        <v>0.2171364431895522</v>
+      </c>
+      <c r="E107">
+        <v>0.3109440736218902</v>
+      </c>
+      <c r="F107">
+        <v>0.5448591921829953</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1"/>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>0.6678182292522068</v>
+      </c>
+      <c r="D109">
+        <v>0.07158734505845543</v>
+      </c>
+      <c r="E109">
+        <v>0.6151330840995229</v>
+      </c>
+      <c r="F109">
+        <v>0.9857793147207226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1"/>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>0.9792632684560061</v>
+      </c>
+      <c r="D110">
+        <v>0.2395041927493841</v>
+      </c>
+      <c r="E110">
+        <v>0.1596214390375448</v>
+      </c>
+      <c r="F110">
+        <v>0.6334150460880831</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1"/>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>0.3270002381322771</v>
+      </c>
+      <c r="D111">
+        <v>0.05267994491762273</v>
+      </c>
+      <c r="E111">
+        <v>0.6644362183329902</v>
+      </c>
+      <c r="F111">
+        <v>0.05337321914084314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>0.740898726942835</v>
+      </c>
+      <c r="D112">
+        <v>0.5910779985623712</v>
+      </c>
+      <c r="E112">
+        <v>0.9753985890677589</v>
+      </c>
+      <c r="F112">
+        <v>0.4179439548702203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113">
+        <v>13</v>
+      </c>
+      <c r="C113">
+        <v>0.822124659708274</v>
+      </c>
+      <c r="D113">
+        <v>0.4081033550391361</v>
+      </c>
+      <c r="E113">
+        <v>0.4307713491964255</v>
+      </c>
+      <c r="F113">
+        <v>0.4260330528593824</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1"/>
+      <c r="B114">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>0.248168383487135</v>
+      </c>
+      <c r="D114">
+        <v>0.4138176083039098</v>
+      </c>
+      <c r="E114">
+        <v>0.6188972396484775</v>
+      </c>
+      <c r="F114">
+        <v>0.3303345197691872</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0.04668133186161028</v>
+      </c>
+      <c r="D115">
+        <v>0.5487942653443884</v>
+      </c>
+      <c r="E115">
+        <v>0.5778663840109539</v>
+      </c>
+      <c r="F115">
+        <v>0.2640827877711164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1"/>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>0.7377981050569109</v>
+      </c>
+      <c r="D116">
+        <v>0.5539487903570225</v>
+      </c>
+      <c r="E116">
+        <v>0.2644784697825727</v>
+      </c>
+      <c r="F116">
+        <v>0.5679708797987448</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1"/>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>0.7828143105560411</v>
+      </c>
+      <c r="D117">
+        <v>0.2558469902424331</v>
+      </c>
+      <c r="E117">
+        <v>0.149481342061068</v>
+      </c>
+      <c r="F117">
+        <v>0.3309042459128364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.1473280517728527</v>
+      </c>
+      <c r="D118">
+        <v>0.1695552526572112</v>
+      </c>
+      <c r="E118">
+        <v>0.9958113704035286</v>
+      </c>
+      <c r="F118">
+        <v>0.6352255730422836</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1"/>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>0.1140362902305919</v>
+      </c>
+      <c r="D119">
+        <v>0.4438886944809345</v>
+      </c>
+      <c r="E119">
+        <v>0.5733867426715341</v>
+      </c>
+      <c r="F119">
+        <v>0.8423790564602296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1"/>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>0.2193239538131101</v>
+      </c>
+      <c r="D120">
+        <v>0.4494214635723496</v>
+      </c>
+      <c r="E120">
+        <v>0.7252325677914704</v>
+      </c>
+      <c r="F120">
+        <v>0.4263533474483958</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1"/>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>0.7108259339826493</v>
+      </c>
+      <c r="D121">
+        <v>0.5540543904230865</v>
+      </c>
+      <c r="E121">
+        <v>0.2759341277179411</v>
+      </c>
+      <c r="F121">
+        <v>0.0003552483022222219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1"/>
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>0.3099103517730882</v>
+      </c>
+      <c r="D122">
+        <v>0.8088745475412205</v>
+      </c>
+      <c r="E122">
+        <v>0.415796617524234</v>
+      </c>
+      <c r="F122">
+        <v>0.3398529552139496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1"/>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1"/>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>0.4926401670372917</v>
+      </c>
+      <c r="D124">
+        <v>0.1578102961074428</v>
+      </c>
+      <c r="E124">
+        <v>0.1048693407621886</v>
+      </c>
+      <c r="F124">
+        <v>0.1502253388510515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1"/>
+      <c r="B125">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>0.1864436635012803</v>
+      </c>
+      <c r="D125">
+        <v>0.8513523973752971</v>
+      </c>
+      <c r="E125">
+        <v>0.565307683730528</v>
+      </c>
+      <c r="F125">
+        <v>0.3705615191484882</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1"/>
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>0.3233253341111696</v>
+      </c>
+      <c r="D126">
+        <v>0.1940248796987871</v>
+      </c>
+      <c r="E126">
+        <v>0.4421974952355859</v>
+      </c>
+      <c r="F126">
+        <v>0.001316619986187484</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1"/>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>0.8845192689952925</v>
+      </c>
+      <c r="D127">
+        <v>0.1787253867074667</v>
+      </c>
+      <c r="E127">
+        <v>0.4952071076051269</v>
+      </c>
+      <c r="F127">
+        <v>0.7790968891388992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1"/>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>0.8548697013070893</v>
+      </c>
+      <c r="D128">
+        <v>0.538309838990528</v>
+      </c>
+      <c r="E128">
+        <v>0.2757627451002927</v>
+      </c>
+      <c r="F128">
+        <v>0.9357828945005736</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0.5714078189373248</v>
+      </c>
+      <c r="D129">
+        <v>0.4323414318677553</v>
+      </c>
+      <c r="E129">
+        <v>0.0879931038852344</v>
+      </c>
+      <c r="F129">
+        <v>0.7240863856805304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1"/>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>0.1860907181609581</v>
+      </c>
+      <c r="D130">
+        <v>0.03192955789505891</v>
+      </c>
+      <c r="E130">
+        <v>0.09331556157380194</v>
+      </c>
+      <c r="F130">
+        <v>0.9979007055231621</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1"/>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0.8921624201155045</v>
+      </c>
+      <c r="D131">
+        <v>0.5319930056146687</v>
+      </c>
+      <c r="E131">
+        <v>0.0313993559583382</v>
+      </c>
+      <c r="F131">
+        <v>0.366413260646026</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0.1148794860576466</v>
+      </c>
+      <c r="D132">
+        <v>0.6823972521469456</v>
+      </c>
+      <c r="E132">
+        <v>0.4441615473686862</v>
+      </c>
+      <c r="F132">
+        <v>0.5094823412634034</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1"/>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>0.9981393229408664</v>
+      </c>
+      <c r="D133">
+        <v>0.8956344714809041</v>
+      </c>
+      <c r="E133">
+        <v>0.2348390422236585</v>
+      </c>
+      <c r="F133">
+        <v>0.2189446501326587</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1"/>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>0.6635568125877555</v>
+      </c>
+      <c r="D134">
+        <v>0.5759155207826975</v>
+      </c>
+      <c r="E134">
+        <v>0.8939822121295221</v>
+      </c>
+      <c r="F134">
+        <v>0.05341083125589419</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1"/>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>0.1486008045750854</v>
+      </c>
+      <c r="D135">
+        <v>0.4341448793090027</v>
+      </c>
+      <c r="E135">
+        <v>0.3178639219351503</v>
+      </c>
+      <c r="F135">
+        <v>0.04988373235337307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1"/>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>0.5432341501599959</v>
+      </c>
+      <c r="D136">
+        <v>0.1287268511045269</v>
+      </c>
+      <c r="E136">
+        <v>0.1878416042787756</v>
+      </c>
+      <c r="F136">
+        <v>0.8645904797099437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1"/>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>0.6102850754209934</v>
+      </c>
+      <c r="D137">
+        <v>0.7342957646878627</v>
+      </c>
+      <c r="E137">
+        <v>0.343154832170168</v>
+      </c>
+      <c r="F137">
+        <v>0.7247945496394629</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1"/>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1"/>
+      <c r="B139">
+        <v>11</v>
+      </c>
+      <c r="C139">
+        <v>0.8126550351884581</v>
+      </c>
+      <c r="D139">
+        <v>0.7489554602375162</v>
+      </c>
+      <c r="E139">
+        <v>0.7080286056867007</v>
+      </c>
+      <c r="F139">
+        <v>0.421232664348303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1"/>
+      <c r="B140">
+        <v>12</v>
+      </c>
+      <c r="C140">
+        <v>0.7617443089826459</v>
+      </c>
+      <c r="D140">
+        <v>0.8350287148147558</v>
+      </c>
+      <c r="E140">
+        <v>0.1596288227203785</v>
+      </c>
+      <c r="F140">
+        <v>0.6213578164380943</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1"/>
+      <c r="B141">
+        <v>13</v>
+      </c>
+      <c r="C141">
+        <v>0.8007285693367909</v>
+      </c>
+      <c r="D141">
+        <v>0.7108400903203896</v>
+      </c>
+      <c r="E141">
+        <v>0.8288768540865242</v>
+      </c>
+      <c r="F141">
+        <v>0.1660212683281059</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1"/>
+      <c r="B142">
+        <v>14</v>
+      </c>
+      <c r="C142">
+        <v>0.4365110244093987</v>
+      </c>
+      <c r="D142">
+        <v>0.7134747758751182</v>
+      </c>
+      <c r="E142">
+        <v>0.2177611331723056</v>
+      </c>
+      <c r="F142">
+        <v>0.6884190657143174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>0.7216806693483188</v>
+      </c>
+      <c r="D143">
+        <v>0.2675336083981552</v>
+      </c>
+      <c r="E143">
+        <v>0.9321369764485974</v>
+      </c>
+      <c r="F143">
+        <v>0.876549817859534</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1"/>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>0.7447461494311738</v>
+      </c>
+      <c r="D144">
+        <v>0.5735453232615824</v>
+      </c>
+      <c r="E144">
+        <v>0.5356045235530612</v>
+      </c>
+      <c r="F144">
+        <v>0.666415357760053</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1"/>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>0.2690151478390775</v>
+      </c>
+      <c r="D145">
+        <v>0.640763741912374</v>
+      </c>
+      <c r="E145">
+        <v>0.8027289386233736</v>
+      </c>
+      <c r="F145">
+        <v>0.5021273582404712</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1"/>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>0.609586896727118</v>
+      </c>
+      <c r="D146">
+        <v>0.006428420915817523</v>
+      </c>
+      <c r="E146">
+        <v>0.7991409819946632</v>
+      </c>
+      <c r="F146">
+        <v>0.3276264559555503</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1"/>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>0.7541080056356498</v>
+      </c>
+      <c r="D147">
+        <v>0.1402768162111488</v>
+      </c>
+      <c r="E147">
+        <v>0.2236322138653211</v>
+      </c>
+      <c r="F147">
+        <v>0.4442472710988239</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1"/>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>0.3825764496800348</v>
+      </c>
+      <c r="D148">
+        <v>0.07039951464973815</v>
+      </c>
+      <c r="E148">
+        <v>0.4845799598033561</v>
+      </c>
+      <c r="F148">
+        <v>0.4338096538423376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1"/>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>0.7286581083626908</v>
+      </c>
+      <c r="D149">
+        <v>0.6143869685662796</v>
+      </c>
+      <c r="E149">
+        <v>0.9298647830942881</v>
+      </c>
+      <c r="F149">
+        <v>0.8913434519939689</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1"/>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>0.04543842550438126</v>
+      </c>
+      <c r="D150">
+        <v>0.540914131611184</v>
+      </c>
+      <c r="E150">
+        <v>0.4938459769647163</v>
+      </c>
+      <c r="F150">
+        <v>0.4374254639829765</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1"/>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>0.9924555301366641</v>
+      </c>
+      <c r="D151">
+        <v>0.1748061654698432</v>
+      </c>
+      <c r="E151">
+        <v>0.329290142127301</v>
+      </c>
+      <c r="F151">
+        <v>0.8830112904658038</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1"/>
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>0.06805090066057817</v>
+      </c>
+      <c r="D152">
+        <v>0.2682542449504718</v>
+      </c>
+      <c r="E152">
+        <v>0.9836272148184207</v>
+      </c>
+      <c r="F152">
+        <v>0.2775095478160926</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1"/>
+      <c r="B153">
+        <v>11</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1"/>
+      <c r="B154">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>0.2944327271330429</v>
+      </c>
+      <c r="D154">
+        <v>0.4278780966267182</v>
+      </c>
+      <c r="E154">
+        <v>0.6068661173009896</v>
+      </c>
+      <c r="F154">
+        <v>0.9726258415328973</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1"/>
+      <c r="B155">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>0.7909852132268291</v>
+      </c>
+      <c r="D155">
+        <v>0.06500498064185689</v>
+      </c>
+      <c r="E155">
+        <v>0.1049758028246798</v>
+      </c>
+      <c r="F155">
+        <v>0.2115615568739296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1"/>
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>0.1726571726329021</v>
+      </c>
+      <c r="D156">
+        <v>0.9656896003088026</v>
+      </c>
+      <c r="E156">
+        <v>0.8764471980221124</v>
+      </c>
+      <c r="F156">
+        <v>0.8660725168151985</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0.6370670925830941</v>
+      </c>
+      <c r="D157">
+        <v>0.454295170746417</v>
+      </c>
+      <c r="E157">
+        <v>0.4060472918228374</v>
+      </c>
+      <c r="F157">
+        <v>0.09707840989151595</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1"/>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>0.1416447716866356</v>
+      </c>
+      <c r="D158">
+        <v>0.6868821765263515</v>
+      </c>
+      <c r="E158">
+        <v>0.7273805432122074</v>
+      </c>
+      <c r="F158">
+        <v>0.5683943799483492</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1"/>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>0.8190661768949208</v>
+      </c>
+      <c r="D159">
+        <v>0.7610828895114345</v>
+      </c>
+      <c r="E159">
+        <v>0.2178453126014638</v>
+      </c>
+      <c r="F159">
+        <v>0.4163209247677182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1"/>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>0.204751613538923</v>
+      </c>
+      <c r="D160">
+        <v>0.11900363091544</v>
+      </c>
+      <c r="E160">
+        <v>0.2084953994747957</v>
+      </c>
+      <c r="F160">
+        <v>0.2037159629220733</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1"/>
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>0.0118088068116502</v>
+      </c>
+      <c r="D161">
+        <v>0.4352002992745233</v>
+      </c>
+      <c r="E161">
+        <v>0.8672636437183273</v>
+      </c>
+      <c r="F161">
+        <v>0.8629339901779285</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1"/>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>0.2638866824801123</v>
+      </c>
+      <c r="D162">
+        <v>0.7995735294305039</v>
+      </c>
+      <c r="E162">
+        <v>0.7919082308586475</v>
+      </c>
+      <c r="F162">
+        <v>0.9448958654095333</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1"/>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>0.6931645903354364</v>
+      </c>
+      <c r="D163">
+        <v>0.4015947377329663</v>
+      </c>
+      <c r="E163">
+        <v>0.7498494583774389</v>
+      </c>
+      <c r="F163">
+        <v>0.6240822348643614</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1"/>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>0.9185071506469918</v>
+      </c>
+      <c r="D164">
+        <v>0.4233894889461473</v>
+      </c>
+      <c r="E164">
+        <v>0.01628129209014584</v>
+      </c>
+      <c r="F164">
+        <v>0.1469629183431514</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1"/>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>0.9086627796649542</v>
+      </c>
+      <c r="D165">
+        <v>0.344734428294788</v>
+      </c>
+      <c r="E165">
+        <v>0.806017544520696</v>
+      </c>
+      <c r="F165">
+        <v>0.1378513094129785</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1"/>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>0.1757344309818258</v>
+      </c>
+      <c r="D166">
+        <v>0.2780004273558832</v>
+      </c>
+      <c r="E166">
+        <v>0.4790080719808152</v>
+      </c>
+      <c r="F166">
+        <v>0.6374498798890463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1"/>
+      <c r="B167">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <v>0.9196313964023055</v>
+      </c>
+      <c r="D167">
+        <v>0.6962606562822945</v>
+      </c>
+      <c r="E167">
+        <v>0.5661869209232085</v>
+      </c>
+      <c r="F167">
+        <v>0.6554061560923031</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1"/>
+      <c r="B168">
+        <v>12</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1"/>
+      <c r="B169">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>0.1707139974877891</v>
+      </c>
+      <c r="D169">
+        <v>0.905007247050011</v>
+      </c>
+      <c r="E169">
+        <v>0.09091477172389317</v>
+      </c>
+      <c r="F169">
+        <v>0.2756980966523193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1"/>
+      <c r="B170">
+        <v>14</v>
+      </c>
+      <c r="C170">
+        <v>0.5670325818850255</v>
+      </c>
+      <c r="D170">
+        <v>0.03345742998705092</v>
+      </c>
+      <c r="E170">
+        <v>0.3915939564417704</v>
+      </c>
+      <c r="F170">
+        <v>0.7031973019968183</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0.3288813636227874</v>
+      </c>
+      <c r="D171">
+        <v>0.2770898402238914</v>
+      </c>
+      <c r="E171">
+        <v>0.8589577137453241</v>
+      </c>
+      <c r="F171">
+        <v>0.8469217142245336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1"/>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>0.09196663905107172</v>
+      </c>
+      <c r="D172">
+        <v>0.5939968633280898</v>
+      </c>
+      <c r="E172">
+        <v>0.1085282565666611</v>
+      </c>
+      <c r="F172">
+        <v>0.4723975985127475</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1"/>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>0.6633656314498834</v>
+      </c>
+      <c r="D173">
+        <v>0.9719255777957058</v>
+      </c>
+      <c r="E173">
+        <v>0.2433252422747887</v>
+      </c>
+      <c r="F173">
+        <v>0.8194706418090065</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1"/>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0.1176822343636672</v>
+      </c>
+      <c r="D174">
+        <v>0.4032936844495065</v>
+      </c>
+      <c r="E174">
+        <v>0.7592356440104905</v>
+      </c>
+      <c r="F174">
+        <v>0.7186643284768308</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1"/>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>0.215713351328978</v>
+      </c>
+      <c r="D175">
+        <v>0.5299349238336289</v>
+      </c>
+      <c r="E175">
+        <v>0.9394342209643963</v>
+      </c>
+      <c r="F175">
+        <v>0.3888918981201214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1"/>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>0.3249120671646676</v>
+      </c>
+      <c r="D176">
+        <v>0.4071307388500816</v>
+      </c>
+      <c r="E176">
+        <v>0.7129137622244518</v>
+      </c>
+      <c r="F176">
+        <v>0.2429534329503288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1"/>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>0.502321550591786</v>
+      </c>
+      <c r="D177">
+        <v>0.2180882203613587</v>
+      </c>
+      <c r="E177">
+        <v>0.6767929209146056</v>
+      </c>
+      <c r="F177">
+        <v>0.1079994509114498</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1"/>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>0.9181564801837724</v>
+      </c>
+      <c r="D178">
+        <v>0.5119562022804003</v>
+      </c>
+      <c r="E178">
+        <v>0.610673766554135</v>
+      </c>
+      <c r="F178">
+        <v>0.2070455703444175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1"/>
+      <c r="B179">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>0.1331035211886863</v>
+      </c>
+      <c r="D179">
+        <v>0.09678758659623865</v>
+      </c>
+      <c r="E179">
+        <v>0.3709624021454652</v>
+      </c>
+      <c r="F179">
+        <v>0.1593371059458681</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1"/>
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180">
+        <v>0.1694140425248312</v>
+      </c>
+      <c r="D180">
+        <v>0.5045819715070424</v>
+      </c>
+      <c r="E180">
+        <v>0.305315772548411</v>
+      </c>
+      <c r="F180">
+        <v>0.2921860067318327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1"/>
+      <c r="B181">
+        <v>11</v>
+      </c>
+      <c r="C181">
+        <v>0.5263195768434202</v>
+      </c>
+      <c r="D181">
+        <v>0.629097282946922</v>
+      </c>
+      <c r="E181">
+        <v>0.2421521817912947</v>
+      </c>
+      <c r="F181">
+        <v>0.8776337362554893</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1"/>
+      <c r="B182">
+        <v>12</v>
+      </c>
+      <c r="C182">
+        <v>0.3536354211511794</v>
+      </c>
+      <c r="D182">
+        <v>0.1742085062683597</v>
+      </c>
+      <c r="E182">
+        <v>0.9635164672935598</v>
+      </c>
+      <c r="F182">
+        <v>0.1967656183704559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1"/>
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1"/>
+      <c r="B184">
+        <v>14</v>
+      </c>
+      <c r="C184">
+        <v>0.3059904803106984</v>
+      </c>
+      <c r="D184">
+        <v>0.1120020395595421</v>
+      </c>
+      <c r="E184">
+        <v>0.8332978486345288</v>
+      </c>
+      <c r="F184">
+        <v>0.2144849029210533</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>0.8885698471808339</v>
+      </c>
+      <c r="D185">
+        <v>0.1962828247158948</v>
+      </c>
+      <c r="E185">
+        <v>0.5299279923256567</v>
+      </c>
+      <c r="F185">
+        <v>0.8084065875895796</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1"/>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>0.2100672505671137</v>
+      </c>
+      <c r="D186">
+        <v>0.9358982306511119</v>
+      </c>
+      <c r="E186">
+        <v>0.60986505273618</v>
+      </c>
+      <c r="F186">
+        <v>0.7131991909781475</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1"/>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>0.3903799267552067</v>
+      </c>
+      <c r="D187">
+        <v>0.862482930895292</v>
+      </c>
+      <c r="E187">
+        <v>0.9256936035708443</v>
+      </c>
+      <c r="F187">
+        <v>0.08159015629707544</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1"/>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>0.6953558620110861</v>
+      </c>
+      <c r="D188">
+        <v>0.9625798241898692</v>
+      </c>
+      <c r="E188">
+        <v>0.882901584200768</v>
+      </c>
+      <c r="F188">
+        <v>0.7814840964072827</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1"/>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>0.4802960154302184</v>
+      </c>
+      <c r="D189">
+        <v>0.9282624565922425</v>
+      </c>
+      <c r="E189">
+        <v>0.8466032029350782</v>
+      </c>
+      <c r="F189">
+        <v>0.004882018128109067</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1"/>
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>0.7520883065600942</v>
+      </c>
+      <c r="D190">
+        <v>0.9683130786752171</v>
+      </c>
+      <c r="E190">
+        <v>0.8082582585614289</v>
+      </c>
+      <c r="F190">
+        <v>0.8548571662002884</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1"/>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>0.3475115395420004</v>
+      </c>
+      <c r="D191">
+        <v>0.07818377504206264</v>
+      </c>
+      <c r="E191">
+        <v>0.07009539443460122</v>
+      </c>
+      <c r="F191">
+        <v>0.1099647724865077</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1"/>
+      <c r="B192">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <v>0.1249876486923214</v>
+      </c>
+      <c r="D192">
+        <v>0.4180387586697832</v>
+      </c>
+      <c r="E192">
+        <v>0.4401323144094318</v>
+      </c>
+      <c r="F192">
+        <v>0.6191557383143929</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1"/>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193">
+        <v>0.3219137001688648</v>
+      </c>
+      <c r="D193">
+        <v>0.4759053436661325</v>
+      </c>
+      <c r="E193">
+        <v>0.5678103733194416</v>
+      </c>
+      <c r="F193">
+        <v>0.7026627195218278</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1"/>
+      <c r="B194">
+        <v>10</v>
+      </c>
+      <c r="C194">
+        <v>0.1836502645807643</v>
+      </c>
+      <c r="D194">
+        <v>0.997729355851867</v>
+      </c>
+      <c r="E194">
+        <v>0.01178578183264356</v>
+      </c>
+      <c r="F194">
+        <v>0.4621415521193964</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1"/>
+      <c r="B195">
+        <v>11</v>
+      </c>
+      <c r="C195">
+        <v>0.07491557423902162</v>
+      </c>
+      <c r="D195">
+        <v>0.8016936118884176</v>
+      </c>
+      <c r="E195">
+        <v>0.4831038550003769</v>
+      </c>
+      <c r="F195">
+        <v>0.8490321717495759</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1"/>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="C196">
+        <v>0.6392469892452044</v>
+      </c>
+      <c r="D196">
+        <v>0.641136838554383</v>
+      </c>
+      <c r="E196">
+        <v>0.02942018590548212</v>
+      </c>
+      <c r="F196">
+        <v>0.3607493302054162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1"/>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>0.566503178181135</v>
+      </c>
+      <c r="D197">
+        <v>0.7062374117936342</v>
+      </c>
+      <c r="E197">
+        <v>0.2855886172861416</v>
+      </c>
+      <c r="F197">
+        <v>0.5169917650344307</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1"/>
+      <c r="B198">
+        <v>14</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="A17:A30"/>
     <mergeCell ref="A31:A44"/>
